--- a/LoopGame/LoopGame/Content/csv/Stage07.xlsx
+++ b/LoopGame/LoopGame/Content/csv/Stage07.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Sourcetree\Loop\LoopGame\LoopGame\Content\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3D12FD3F-7552-4C02-8647-710227142D95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7234C6-0FCC-4D74-B2E7-7CF8D98698EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestStage02" sheetId="1" r:id="rId1"/>
+    <sheet name="TestStage09" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TestStage09!$A$1:$P$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,182 +76,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -562,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -679,31 +507,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -729,13 +557,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -744,10 +572,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -779,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -788,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -829,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -844,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -873,22 +701,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -903,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -938,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -950,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1023,106 +851,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A10:P10">
-    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
+  <conditionalFormatting sqref="A1:P12">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:P9">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M1 A8:M9 A2:C7 I2:M7">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:P19">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:M19">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:H7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LoopGame/LoopGame/Content/csv/Stage07.xlsx
+++ b/LoopGame/LoopGame/Content/csv/Stage07.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Sourcetree\Loop\LoopGame\LoopGame\Content\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K018A1442\Documents\LoopGame\LoopGame\LoopGame\Content\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7234C6-0FCC-4D74-B2E7-7CF8D98698EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="TestStage09" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage07" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestStage09!$A$1:$P$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Stage07!$A$1:$P$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,19 +386,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16" width="3.125" customWidth="1"/>
+    <col min="1" max="16" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -449,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -499,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -507,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -549,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -563,243 +562,243 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>

--- a/LoopGame/LoopGame/Content/csv/Stage07.xlsx
+++ b/LoopGame/LoopGame/Content/csv/Stage07.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Sourcetree\Loop\LoopGame\LoopGame\Content\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K018A1442\Documents\LoopGame\LoopGame\LoopGame\Content\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7234C6-0FCC-4D74-B2E7-7CF8D98698EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="TestStage09" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage07" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestStage09!$A$1:$P$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Stage07!$A$1:$P$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,19 +386,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16" width="3.125" customWidth="1"/>
+    <col min="1" max="16" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -410,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -449,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -499,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -507,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -516,290 +515,290 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -810,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
